--- a/results/mp/tinybert/corona/confidence/84/stop-words-0.5/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/84/stop-words-0.5/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="55">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,9 +46,6 @@
     <t>crisis</t>
   </si>
   <si>
-    <t>emergency</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
@@ -61,121 +58,127 @@
     <t>stop</t>
   </si>
   <si>
-    <t>demand</t>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>san</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>co</t>
   </si>
   <si>
     <t>corona</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>co</t>
   </si>
 </sst>
 </file>
@@ -533,7 +536,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q39"/>
+  <dimension ref="A1:Q42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -541,10 +544,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -602,13 +605,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.92</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C3">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D3">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -620,19 +623,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L3">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="M3">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -644,7 +647,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -652,13 +655,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7077922077922078</v>
+        <v>0.6438356164383562</v>
       </c>
       <c r="C4">
-        <v>109</v>
+        <v>188</v>
       </c>
       <c r="D4">
-        <v>109</v>
+        <v>188</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -670,13 +673,13 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K4">
-        <v>0.96875</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L4">
         <v>31</v>
@@ -694,7 +697,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -702,13 +705,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.5</v>
+        <v>0.2829457364341085</v>
       </c>
       <c r="C5">
-        <v>14</v>
+        <v>146</v>
       </c>
       <c r="D5">
-        <v>14</v>
+        <v>146</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -720,19 +723,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>14</v>
+        <v>370</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="K5">
-        <v>0.9583333333333334</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="L5">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="M5">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -744,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -752,13 +755,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.463519313304721</v>
+        <v>0.2328042328042328</v>
       </c>
       <c r="C6">
-        <v>108</v>
+        <v>44</v>
       </c>
       <c r="D6">
-        <v>108</v>
+        <v>44</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -770,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K6">
-        <v>0.9375</v>
+        <v>0.8292682926829268</v>
       </c>
       <c r="L6">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="M6">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -794,7 +797,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -802,13 +805,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.3023255813953488</v>
+        <v>0.1879194630872483</v>
       </c>
       <c r="C7">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D7">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -820,19 +823,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>60</v>
+        <v>121</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K7">
-        <v>0.8823529411764706</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="L7">
-        <v>45</v>
+        <v>92</v>
       </c>
       <c r="M7">
-        <v>45</v>
+        <v>92</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -844,7 +847,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -852,213 +855,141 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.2875</v>
+        <v>0.119047619047619</v>
       </c>
       <c r="C8">
+        <v>30</v>
+      </c>
+      <c r="D8">
+        <v>30</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>222</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8">
+        <v>0.8103448275862069</v>
+      </c>
+      <c r="L8">
+        <v>47</v>
+      </c>
+      <c r="M8">
+        <v>47</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="J9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9">
+        <v>0.8055555555555556</v>
+      </c>
+      <c r="L9">
+        <v>29</v>
+      </c>
+      <c r="M9">
+        <v>29</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="J10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K10">
+        <v>0.8046875</v>
+      </c>
+      <c r="L10">
+        <v>103</v>
+      </c>
+      <c r="M10">
+        <v>103</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="J11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D8">
-        <v>23</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>57</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K8">
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="L8">
-        <v>48</v>
-      </c>
-      <c r="M8">
-        <v>48</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9">
-        <v>0.1636363636363636</v>
-      </c>
-      <c r="C9">
-        <v>18</v>
-      </c>
-      <c r="D9">
-        <v>18</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>92</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K9">
-        <v>0.85</v>
-      </c>
-      <c r="L9">
-        <v>34</v>
-      </c>
-      <c r="M9">
-        <v>34</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="A10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10">
-        <v>0.09677419354838709</v>
-      </c>
-      <c r="C10">
-        <v>18</v>
-      </c>
-      <c r="D10">
-        <v>18</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>168</v>
-      </c>
-      <c r="J10" s="1" t="s">
+      <c r="K11">
+        <v>0.7916666666666666</v>
+      </c>
+      <c r="L11">
+        <v>95</v>
+      </c>
+      <c r="M11">
+        <v>95</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11">
         <v>25</v>
-      </c>
-      <c r="K10">
-        <v>0.8333333333333334</v>
-      </c>
-      <c r="L10">
-        <v>45</v>
-      </c>
-      <c r="M10">
-        <v>45</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11">
-        <v>0.009529860228716646</v>
-      </c>
-      <c r="C11">
-        <v>15</v>
-      </c>
-      <c r="D11">
-        <v>38</v>
-      </c>
-      <c r="E11">
-        <v>0.61</v>
-      </c>
-      <c r="F11">
-        <v>0.39</v>
-      </c>
-      <c r="G11" t="b">
-        <v>1</v>
-      </c>
-      <c r="H11">
-        <v>1559</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K11">
-        <v>0.8148148148148148</v>
-      </c>
-      <c r="L11">
-        <v>22</v>
-      </c>
-      <c r="M11">
-        <v>22</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K12">
-        <v>0.803921568627451</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L12">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="M12">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1070,21 +1001,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K13">
-        <v>0.8</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="L13">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="M13">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1096,21 +1027,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K14">
-        <v>0.7916666666666666</v>
+        <v>0.7183098591549296</v>
       </c>
       <c r="L14">
-        <v>19</v>
+        <v>102</v>
       </c>
       <c r="M14">
-        <v>19</v>
+        <v>102</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1122,21 +1053,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>5</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="K15">
-        <v>0.7413793103448276</v>
+        <v>0.7075471698113207</v>
       </c>
       <c r="L15">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="M15">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1148,21 +1079,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>15</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="K16">
-        <v>0.7272727272727273</v>
+        <v>0.7021276595744681</v>
       </c>
       <c r="L16">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="M16">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1174,21 +1105,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K17">
-        <v>0.7241379310344828</v>
+        <v>0.6875</v>
       </c>
       <c r="L17">
-        <v>21</v>
+        <v>110</v>
       </c>
       <c r="M17">
-        <v>21</v>
+        <v>110</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1200,21 +1131,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>8</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K18">
-        <v>0.717948717948718</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L18">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M18">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1226,21 +1157,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K19">
-        <v>0.68</v>
+        <v>0.6151832460732984</v>
       </c>
       <c r="L19">
-        <v>17</v>
+        <v>235</v>
       </c>
       <c r="M19">
-        <v>17</v>
+        <v>236</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1249,24 +1180,24 @@
         <v>0</v>
       </c>
       <c r="P19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19">
-        <v>8</v>
+        <v>147</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K20">
-        <v>0.6363636363636364</v>
+        <v>0.6063829787234043</v>
       </c>
       <c r="L20">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="M20">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1278,21 +1209,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K21">
-        <v>0.6291079812206573</v>
+        <v>0.6</v>
       </c>
       <c r="L21">
-        <v>134</v>
+        <v>30</v>
       </c>
       <c r="M21">
-        <v>134</v>
+        <v>30</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1304,21 +1235,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>79</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K22">
+        <v>0.5873015873015873</v>
+      </c>
+      <c r="L22">
         <v>37</v>
       </c>
-      <c r="K22">
-        <v>0.6164383561643836</v>
-      </c>
-      <c r="L22">
-        <v>45</v>
-      </c>
       <c r="M22">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1330,21 +1261,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K23">
-        <v>0.6153846153846154</v>
+        <v>0.5393258426966292</v>
       </c>
       <c r="L23">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="M23">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1356,21 +1287,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>10</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K24">
-        <v>0.6</v>
+        <v>0.5323529411764706</v>
       </c>
       <c r="L24">
-        <v>15</v>
+        <v>181</v>
       </c>
       <c r="M24">
-        <v>15</v>
+        <v>181</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1382,21 +1313,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>10</v>
+        <v>159</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="K25">
-        <v>0.5666666666666667</v>
+        <v>0.4923076923076923</v>
       </c>
       <c r="L25">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="M25">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1408,21 +1339,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>13</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K26">
-        <v>0.5625</v>
+        <v>0.488135593220339</v>
       </c>
       <c r="L26">
-        <v>81</v>
+        <v>144</v>
       </c>
       <c r="M26">
-        <v>81</v>
+        <v>144</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1434,21 +1365,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>63</v>
+        <v>151</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K27">
-        <v>0.5038759689922481</v>
+        <v>0.4871794871794872</v>
       </c>
       <c r="L27">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="M27">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1460,21 +1391,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>64</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="K28">
-        <v>0.5</v>
+        <v>0.453125</v>
       </c>
       <c r="L28">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="M28">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1486,21 +1417,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>14</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K29">
-        <v>0.4857142857142857</v>
+        <v>0.4520547945205479</v>
       </c>
       <c r="L29">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="M29">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1512,21 +1443,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>18</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K30">
-        <v>0.4565217391304348</v>
+        <v>0.4351464435146444</v>
       </c>
       <c r="L30">
-        <v>42</v>
+        <v>104</v>
       </c>
       <c r="M30">
-        <v>42</v>
+        <v>104</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1538,47 +1469,47 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>50</v>
+        <v>135</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="K31">
-        <v>0.4324324324324325</v>
+        <v>0.1175059952038369</v>
       </c>
       <c r="L31">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="M31">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="N31">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O31">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q31">
-        <v>21</v>
+        <v>368</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K32">
-        <v>0.08585858585858586</v>
+        <v>0.1162790697674419</v>
       </c>
       <c r="L32">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="M32">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1590,21 +1521,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>181</v>
+        <v>190</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K33">
-        <v>0.08048780487804878</v>
+        <v>0.1009615384615385</v>
       </c>
       <c r="L33">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="M33">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1616,47 +1547,47 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K34">
-        <v>0.04777070063694268</v>
+        <v>0.05823068309070549</v>
       </c>
       <c r="L34">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="M34">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="N34">
-        <v>0.9399999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="O34">
-        <v>0.06000000000000005</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P34" t="b">
         <v>1</v>
       </c>
       <c r="Q34">
-        <v>299</v>
+        <v>841</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K35">
-        <v>0.04460093896713615</v>
+        <v>0.05349794238683128</v>
       </c>
       <c r="L35">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="M35">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1668,111 +1599,189 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>407</v>
+        <v>460</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K36">
-        <v>0.03828828828828829</v>
+        <v>0.04776579352850539</v>
       </c>
       <c r="L36">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="M36">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="N36">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O36">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q36">
-        <v>427</v>
+        <v>618</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="K37">
-        <v>0.03756708407871199</v>
+        <v>0.04439511653718091</v>
       </c>
       <c r="L37">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M37">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="N37">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="O37">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="P37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q37">
-        <v>1076</v>
+        <v>861</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="K38">
-        <v>0.01862556197816313</v>
+        <v>0.03937823834196891</v>
       </c>
       <c r="L38">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="M38">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="N38">
-        <v>0.8100000000000001</v>
+        <v>0.93</v>
       </c>
       <c r="O38">
-        <v>0.1899999999999999</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P38" t="b">
         <v>1</v>
       </c>
       <c r="Q38">
-        <v>1528</v>
+        <v>927</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="K39">
-        <v>0.0145385587863464</v>
+        <v>0.03891233005157056</v>
       </c>
       <c r="L39">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="M39">
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="N39">
-        <v>0.61</v>
+        <v>0.89</v>
       </c>
       <c r="O39">
-        <v>0.39</v>
+        <v>0.11</v>
       </c>
       <c r="P39" t="b">
         <v>1</v>
       </c>
       <c r="Q39">
-        <v>1559</v>
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="40" spans="10:17">
+      <c r="J40" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K40">
+        <v>0.03352601156069364</v>
+      </c>
+      <c r="L40">
+        <v>29</v>
+      </c>
+      <c r="M40">
+        <v>31</v>
+      </c>
+      <c r="N40">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O40">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P40" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q40">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="41" spans="10:17">
+      <c r="J41" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K41">
+        <v>0.03099773974814336</v>
+      </c>
+      <c r="L41">
+        <v>96</v>
+      </c>
+      <c r="M41">
+        <v>106</v>
+      </c>
+      <c r="N41">
+        <v>0.91</v>
+      </c>
+      <c r="O41">
+        <v>0.08999999999999997</v>
+      </c>
+      <c r="P41" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q41">
+        <v>3001</v>
+      </c>
+    </row>
+    <row r="42" spans="10:17">
+      <c r="J42" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K42">
+        <v>0.02036979003447195</v>
+      </c>
+      <c r="L42">
+        <v>65</v>
+      </c>
+      <c r="M42">
+        <v>75</v>
+      </c>
+      <c r="N42">
+        <v>0.87</v>
+      </c>
+      <c r="O42">
+        <v>0.13</v>
+      </c>
+      <c r="P42" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q42">
+        <v>3126</v>
       </c>
     </row>
   </sheetData>

--- a/results/mp/tinybert/corona/confidence/84/stop-words-0.5/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/84/stop-words-0.5/avg_0.004_scores.xlsx
@@ -61,76 +61,88 @@
     <t>negative</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
     <t>love</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>thank</t>
+    <t>safe</t>
   </si>
   <si>
     <t>free</t>
   </si>
   <si>
-    <t>confidence</t>
+    <t>support</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>better</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>good</t>
+    <t>relief</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>hand</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>better</t>
+    <t>important</t>
   </si>
   <si>
     <t>care</t>
   </si>
   <si>
+    <t>help</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
     <t>hope</t>
   </si>
   <si>
-    <t>help</t>
+    <t>please</t>
+  </si>
+  <si>
+    <t>protect</t>
   </si>
   <si>
     <t>increase</t>
@@ -139,43 +151,31 @@
     <t>sure</t>
   </si>
   <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>please</t>
+    <t>shopping</t>
   </si>
   <si>
     <t>online</t>
   </si>
   <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>shopping</t>
+    <t>grocery</t>
   </si>
   <si>
     <t>store</t>
   </si>
   <si>
-    <t>san</t>
-  </si>
-  <si>
     <t>consumer</t>
   </si>
   <si>
-    <t>grocery</t>
+    <t>19</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>co</t>
   </si>
   <si>
     <t>food</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>co</t>
   </si>
   <si>
     <t>corona</t>
@@ -547,7 +547,7 @@
         <v>14</v>
       </c>
       <c r="J1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -605,13 +605,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8235294117647058</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="C3">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D3">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -623,19 +623,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K3">
-        <v>0.9491525423728814</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="L3">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="M3">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -647,7 +647,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -655,13 +655,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.6438356164383562</v>
+        <v>0.6541095890410958</v>
       </c>
       <c r="C4">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D4">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -673,19 +673,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K4">
-        <v>0.9393939393939394</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L4">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="M4">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -697,7 +697,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -705,13 +705,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.2829457364341085</v>
+        <v>0.2965116279069768</v>
       </c>
       <c r="C5">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="D5">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -723,19 +723,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K5">
-        <v>0.9130434782608695</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L5">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="M5">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -755,13 +755,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.2328042328042328</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="C6">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D6">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>18</v>
       </c>
       <c r="K6">
-        <v>0.8292682926829268</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="L6">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="M6">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -797,7 +797,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -805,13 +805,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.1879194630872483</v>
+        <v>0.2080536912751678</v>
       </c>
       <c r="C7">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D7">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -823,19 +823,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K7">
-        <v>0.8214285714285714</v>
+        <v>0.8482142857142857</v>
       </c>
       <c r="L7">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="M7">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -847,7 +847,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -855,13 +855,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.119047619047619</v>
+        <v>0.1071428571428571</v>
       </c>
       <c r="C8">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D8">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -873,19 +873,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>20</v>
       </c>
       <c r="K8">
-        <v>0.8103448275862069</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L8">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="M8">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -897,7 +897,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -905,13 +905,13 @@
         <v>21</v>
       </c>
       <c r="K9">
-        <v>0.8055555555555556</v>
+        <v>0.8125</v>
       </c>
       <c r="L9">
-        <v>29</v>
+        <v>104</v>
       </c>
       <c r="M9">
-        <v>29</v>
+        <v>104</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -923,7 +923,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -931,13 +931,13 @@
         <v>22</v>
       </c>
       <c r="K10">
-        <v>0.8046875</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L10">
-        <v>103</v>
+        <v>47</v>
       </c>
       <c r="M10">
-        <v>103</v>
+        <v>47</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -949,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -957,13 +957,13 @@
         <v>23</v>
       </c>
       <c r="K11">
-        <v>0.7916666666666666</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L11">
-        <v>95</v>
+        <v>29</v>
       </c>
       <c r="M11">
-        <v>95</v>
+        <v>29</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -975,7 +975,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -983,13 +983,13 @@
         <v>24</v>
       </c>
       <c r="K12">
-        <v>0.7777777777777778</v>
+        <v>0.7926829268292683</v>
       </c>
       <c r="L12">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="M12">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1001,7 +1001,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1009,13 +1009,13 @@
         <v>25</v>
       </c>
       <c r="K13">
-        <v>0.7647058823529411</v>
+        <v>0.7676056338028169</v>
       </c>
       <c r="L13">
-        <v>39</v>
+        <v>109</v>
       </c>
       <c r="M13">
-        <v>39</v>
+        <v>109</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1027,7 +1027,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1035,13 +1035,13 @@
         <v>26</v>
       </c>
       <c r="K14">
-        <v>0.7183098591549296</v>
+        <v>0.75</v>
       </c>
       <c r="L14">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="M14">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1053,7 +1053,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1061,13 +1061,13 @@
         <v>27</v>
       </c>
       <c r="K15">
-        <v>0.7075471698113207</v>
+        <v>0.6981132075471698</v>
       </c>
       <c r="L15">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M15">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1079,7 +1079,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1087,13 +1087,13 @@
         <v>28</v>
       </c>
       <c r="K16">
-        <v>0.7021276595744681</v>
+        <v>0.69375</v>
       </c>
       <c r="L16">
-        <v>33</v>
+        <v>111</v>
       </c>
       <c r="M16">
-        <v>33</v>
+        <v>111</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1105,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>14</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1113,13 +1113,13 @@
         <v>29</v>
       </c>
       <c r="K17">
-        <v>0.6875</v>
+        <v>0.6808510638297872</v>
       </c>
       <c r="L17">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="M17">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1131,7 +1131,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>50</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1142,10 +1142,10 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="L18">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="M18">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1157,7 +1157,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1165,13 +1165,13 @@
         <v>31</v>
       </c>
       <c r="K19">
-        <v>0.6151832460732984</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L19">
-        <v>235</v>
+        <v>34</v>
       </c>
       <c r="M19">
-        <v>236</v>
+        <v>34</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="P19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>147</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1191,13 +1191,13 @@
         <v>32</v>
       </c>
       <c r="K20">
-        <v>0.6063829787234043</v>
+        <v>0.66</v>
       </c>
       <c r="L20">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="M20">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>37</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1217,7 +1217,7 @@
         <v>33</v>
       </c>
       <c r="K21">
-        <v>0.6</v>
+        <v>0.625</v>
       </c>
       <c r="L21">
         <v>30</v>
@@ -1235,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1243,13 +1243,13 @@
         <v>34</v>
       </c>
       <c r="K22">
-        <v>0.5873015873015873</v>
+        <v>0.5851063829787234</v>
       </c>
       <c r="L22">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="M22">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1261,7 +1261,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>26</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1269,13 +1269,13 @@
         <v>35</v>
       </c>
       <c r="K23">
-        <v>0.5393258426966292</v>
+        <v>0.5691906005221932</v>
       </c>
       <c r="L23">
-        <v>48</v>
+        <v>218</v>
       </c>
       <c r="M23">
-        <v>48</v>
+        <v>218</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1287,7 +1287,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>41</v>
+        <v>165</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1295,13 +1295,13 @@
         <v>36</v>
       </c>
       <c r="K24">
-        <v>0.5323529411764706</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L24">
-        <v>181</v>
+        <v>25</v>
       </c>
       <c r="M24">
-        <v>181</v>
+        <v>25</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1313,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>159</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1321,13 +1321,13 @@
         <v>37</v>
       </c>
       <c r="K25">
-        <v>0.4923076923076923</v>
+        <v>0.5280898876404494</v>
       </c>
       <c r="L25">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="M25">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1339,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1347,13 +1347,13 @@
         <v>38</v>
       </c>
       <c r="K26">
-        <v>0.488135593220339</v>
+        <v>0.5050847457627119</v>
       </c>
       <c r="L26">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="M26">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1365,7 +1365,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1373,13 +1373,13 @@
         <v>39</v>
       </c>
       <c r="K27">
-        <v>0.4871794871794872</v>
+        <v>0.4970588235294118</v>
       </c>
       <c r="L27">
-        <v>38</v>
+        <v>169</v>
       </c>
       <c r="M27">
-        <v>38</v>
+        <v>169</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>40</v>
+        <v>171</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1399,13 +1399,13 @@
         <v>40</v>
       </c>
       <c r="K28">
-        <v>0.453125</v>
+        <v>0.4923076923076923</v>
       </c>
       <c r="L28">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M28">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1417,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1425,13 +1425,13 @@
         <v>41</v>
       </c>
       <c r="K29">
-        <v>0.4520547945205479</v>
+        <v>0.4309623430962343</v>
       </c>
       <c r="L29">
-        <v>33</v>
+        <v>103</v>
       </c>
       <c r="M29">
-        <v>33</v>
+        <v>103</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1443,7 +1443,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>40</v>
+        <v>136</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1451,13 +1451,13 @@
         <v>42</v>
       </c>
       <c r="K30">
-        <v>0.4351464435146444</v>
+        <v>0.410958904109589</v>
       </c>
       <c r="L30">
-        <v>104</v>
+        <v>30</v>
       </c>
       <c r="M30">
-        <v>104</v>
+        <v>30</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1469,7 +1469,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>135</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1477,25 +1477,25 @@
         <v>43</v>
       </c>
       <c r="K31">
-        <v>0.1175059952038369</v>
+        <v>0.3974358974358974</v>
       </c>
       <c r="L31">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="M31">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="N31">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O31">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q31">
-        <v>368</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1503,7 +1503,7 @@
         <v>44</v>
       </c>
       <c r="K32">
-        <v>0.1162790697674419</v>
+        <v>0.390625</v>
       </c>
       <c r="L32">
         <v>25</v>
@@ -1521,7 +1521,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>190</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1529,13 +1529,13 @@
         <v>45</v>
       </c>
       <c r="K33">
-        <v>0.1009615384615385</v>
+        <v>0.0985576923076923</v>
       </c>
       <c r="L33">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M33">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1547,7 +1547,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1555,25 +1555,25 @@
         <v>46</v>
       </c>
       <c r="K34">
-        <v>0.05823068309070549</v>
+        <v>0.08373205741626795</v>
       </c>
       <c r="L34">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="M34">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="N34">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O34">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34">
-        <v>841</v>
+        <v>383</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1581,13 +1581,13 @@
         <v>47</v>
       </c>
       <c r="K35">
-        <v>0.05349794238683128</v>
+        <v>0.0732519422863485</v>
       </c>
       <c r="L35">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="M35">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1599,7 +1599,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>460</v>
+        <v>835</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1607,25 +1607,25 @@
         <v>48</v>
       </c>
       <c r="K36">
-        <v>0.04776579352850539</v>
+        <v>0.0592841163310962</v>
       </c>
       <c r="L36">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="M36">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="N36">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O36">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36">
-        <v>618</v>
+        <v>841</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1633,13 +1633,13 @@
         <v>49</v>
       </c>
       <c r="K37">
-        <v>0.04439511653718091</v>
+        <v>0.05538461538461539</v>
       </c>
       <c r="L37">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="M37">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1651,7 +1651,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>861</v>
+        <v>614</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1659,25 +1659,25 @@
         <v>50</v>
       </c>
       <c r="K38">
-        <v>0.03937823834196891</v>
+        <v>0.04355971896955504</v>
       </c>
       <c r="L38">
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="M38">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="N38">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="O38">
-        <v>0.06999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P38" t="b">
         <v>1</v>
       </c>
       <c r="Q38">
-        <v>927</v>
+        <v>2042</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -1685,25 +1685,25 @@
         <v>51</v>
       </c>
       <c r="K39">
-        <v>0.03891233005157056</v>
+        <v>0.04152249134948097</v>
       </c>
       <c r="L39">
-        <v>83</v>
+        <v>36</v>
       </c>
       <c r="M39">
-        <v>93</v>
+        <v>36</v>
       </c>
       <c r="N39">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="O39">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="P39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q39">
-        <v>2050</v>
+        <v>831</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -1711,25 +1711,25 @@
         <v>52</v>
       </c>
       <c r="K40">
-        <v>0.03352601156069364</v>
+        <v>0.03104786545924968</v>
       </c>
       <c r="L40">
-        <v>29</v>
+        <v>96</v>
       </c>
       <c r="M40">
-        <v>31</v>
+        <v>111</v>
       </c>
       <c r="N40">
-        <v>0.9399999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="O40">
-        <v>0.06000000000000005</v>
+        <v>0.14</v>
       </c>
       <c r="P40" t="b">
         <v>1</v>
       </c>
       <c r="Q40">
-        <v>836</v>
+        <v>2996</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -1737,25 +1737,25 @@
         <v>53</v>
       </c>
       <c r="K41">
-        <v>0.03099773974814336</v>
+        <v>0.03102378490175801</v>
       </c>
       <c r="L41">
-        <v>96</v>
+        <v>30</v>
       </c>
       <c r="M41">
-        <v>106</v>
+        <v>31</v>
       </c>
       <c r="N41">
-        <v>0.91</v>
+        <v>0.97</v>
       </c>
       <c r="O41">
-        <v>0.08999999999999997</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P41" t="b">
         <v>1</v>
       </c>
       <c r="Q41">
-        <v>3001</v>
+        <v>937</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -1763,25 +1763,25 @@
         <v>54</v>
       </c>
       <c r="K42">
-        <v>0.02036979003447195</v>
+        <v>0.01848950172359762</v>
       </c>
       <c r="L42">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="M42">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="N42">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="O42">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="P42" t="b">
         <v>1</v>
       </c>
       <c r="Q42">
-        <v>3126</v>
+        <v>3132</v>
       </c>
     </row>
   </sheetData>
